--- a/오프셋별화자이름.xlsx
+++ b/오프셋별화자이름.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sg000\Desktop\play\KRTrans\DGMAdv KR\21sincedStartFirst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sg000\Desktop\play\KRTrans\DGMAdv KR\21sincedStartFirst\locale_kr\gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F46AB2-9BAB-4E42-BAFF-16FF470D3642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3433F8A-882A-4A54-A1A9-FD370E7DB77C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2868" windowWidth="23256" windowHeight="13176" xr2:uid="{687A896C-F325-48FE-96D3-7C93BFBE9C2B}"/>
+    <workbookView xWindow="12720" yWindow="1440" windowWidth="15165" windowHeight="13245" xr2:uid="{687A896C-F325-48FE-96D3-7C93BFBE9C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>아나운서</t>
   </si>
@@ -141,6 +141,150 @@
   </si>
   <si>
     <t>누메몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핏코로몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에테몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티라노몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겐나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코카토리몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피요몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토게몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸카몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레이몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메탈그레이몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워그레이몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가부몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가루루몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워가루루몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메탈가루루몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버드라몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가루다몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호우오우몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캅테리몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트라캅테리몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤라클캅테리몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리리몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로제몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잇카쿠몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즈도몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이크몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔제몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀리엔제몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세라피몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플롯트몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테일몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔제우몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오파니몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반데몬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244602D-8921-4897-ACAB-30DBFD651690}">
-  <dimension ref="B1:C31"/>
+  <dimension ref="B1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -609,162 +753,442 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
-        <v>2211</v>
+        <v>2131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
-        <v>2311</v>
+        <v>2141</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
-        <v>2411</v>
+        <v>2151</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
-        <v>2421</v>
+        <v>2211</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
-        <v>2511</v>
+        <v>2221</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
-        <v>2521</v>
+        <v>2231</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
-        <v>2611</v>
+        <v>2241</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
-        <v>2711</v>
+        <v>2251</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
-        <v>2721</v>
+        <v>2311</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
-        <v>2811</v>
+        <v>2321</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
-        <v>4902</v>
+        <v>2331</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
-        <v>4903</v>
+        <v>2341</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
-        <v>6061</v>
+        <v>2351</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
-        <v>9003</v>
+        <v>2411</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
-        <v>65535</v>
+        <v>2421</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
-        <v>9001</v>
+        <v>2431</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
-        <v>4071</v>
+        <v>2441</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
-        <v>4061</v>
+        <v>2451</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
-        <v>3011</v>
+        <v>2511</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
+        <v>2521</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>2531</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>2541</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>2551</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <v>2611</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <v>2621</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <v>2631</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>2641</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>2651</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <v>2711</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <v>2721</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>2731</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <v>2741</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>2751</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>2811</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>2821</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>2831</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <v>2841</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
+        <v>2851</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>3011</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="2">
+        <v>3021</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="2">
+        <v>3031</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
         <v>4031</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="2">
+        <v>4061</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="2">
+        <v>4071</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
+        <v>4182</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
+        <v>4191</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
+        <v>4201</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
+        <v>4902</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
+        <v>4903</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="2">
+        <v>4905</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="2">
+        <v>5011</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="2">
+        <v>6061</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>9001</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>9003</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
+        <v>65535</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/오프셋별화자이름.xlsx
+++ b/오프셋별화자이름.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sg000\Desktop\play\KRTrans\DGMAdv KR\21sincedStartFirst\locale_kr\gui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3433F8A-882A-4A54-A1A9-FD370E7DB77C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF36D04-B8D6-433A-8C79-75023ACF7510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="1440" windowWidth="15165" windowHeight="13245" xr2:uid="{687A896C-F325-48FE-96D3-7C93BFBE9C2B}"/>
+    <workbookView xWindow="12450" yWindow="420" windowWidth="15165" windowHeight="13245" xr2:uid="{687A896C-F325-48FE-96D3-7C93BFBE9C2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
-  <si>
-    <t>아나운서</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>소라</t>
   </si>
@@ -285,6 +282,110 @@
   </si>
   <si>
     <t>반데몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스카몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>츄몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼그몬a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼그몬b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼그몬c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피코데비몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지타마몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베지몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베이더몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올챙몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개굴몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕개굴몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모야몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지몬들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데비드라몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린히카리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린타이치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이치엄마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코시로 엄마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코시로 아빠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매튜아빠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위자몬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판토몬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0244602D-8921-4897-ACAB-30DBFD651690}">
-  <dimension ref="B1:C66"/>
+  <dimension ref="B1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -676,7 +777,7 @@
         <v>1011</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -684,7 +785,7 @@
         <v>1021</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -692,7 +793,7 @@
         <v>1031</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -700,7 +801,7 @@
         <v>1041</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -708,7 +809,7 @@
         <v>1051</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -716,7 +817,7 @@
         <v>1061</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -724,7 +825,7 @@
         <v>1071</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -732,7 +833,7 @@
         <v>1081</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
@@ -740,7 +841,7 @@
         <v>2111</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -748,7 +849,7 @@
         <v>2121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
@@ -756,7 +857,7 @@
         <v>2131</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
@@ -764,7 +865,7 @@
         <v>2141</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
@@ -772,7 +873,7 @@
         <v>2151</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -780,7 +881,7 @@
         <v>2211</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
@@ -788,7 +889,7 @@
         <v>2221</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -796,7 +897,7 @@
         <v>2231</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -804,7 +905,7 @@
         <v>2241</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -812,7 +913,7 @@
         <v>2251</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
@@ -820,7 +921,7 @@
         <v>2311</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
@@ -828,7 +929,7 @@
         <v>2321</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -836,7 +937,7 @@
         <v>2331</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
@@ -844,7 +945,7 @@
         <v>2341</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
@@ -852,7 +953,7 @@
         <v>2351</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -860,7 +961,7 @@
         <v>2411</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
@@ -868,7 +969,7 @@
         <v>2421</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
@@ -876,7 +977,7 @@
         <v>2431</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -884,7 +985,7 @@
         <v>2441</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
@@ -892,7 +993,7 @@
         <v>2451</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -900,7 +1001,7 @@
         <v>2511</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
@@ -908,7 +1009,7 @@
         <v>2521</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
@@ -916,7 +1017,7 @@
         <v>2531</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -924,7 +1025,7 @@
         <v>2541</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
@@ -932,7 +1033,7 @@
         <v>2551</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -940,7 +1041,7 @@
         <v>2611</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
@@ -948,7 +1049,7 @@
         <v>2621</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
@@ -956,7 +1057,7 @@
         <v>2631</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
@@ -964,7 +1065,7 @@
         <v>2641</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
@@ -972,7 +1073,7 @@
         <v>2651</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
@@ -980,7 +1081,7 @@
         <v>2711</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
@@ -988,7 +1089,7 @@
         <v>2721</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
@@ -996,7 +1097,7 @@
         <v>2731</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
@@ -1004,7 +1105,7 @@
         <v>2741</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
@@ -1012,7 +1113,7 @@
         <v>2751</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
@@ -1020,7 +1121,7 @@
         <v>2811</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
@@ -1028,7 +1129,7 @@
         <v>2821</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
@@ -1036,7 +1137,7 @@
         <v>2831</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
@@ -1044,7 +1145,7 @@
         <v>2841</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
@@ -1052,7 +1153,7 @@
         <v>2851</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
@@ -1060,7 +1161,7 @@
         <v>3011</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
@@ -1068,7 +1169,7 @@
         <v>3021</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
@@ -1076,7 +1177,7 @@
         <v>3031</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
@@ -1084,7 +1185,7 @@
         <v>4031</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
@@ -1092,7 +1193,7 @@
         <v>4061</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
@@ -1100,7 +1201,7 @@
         <v>4071</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
@@ -1108,7 +1209,7 @@
         <v>4182</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
@@ -1116,7 +1217,7 @@
         <v>4191</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
@@ -1124,7 +1225,7 @@
         <v>4201</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
@@ -1132,7 +1233,7 @@
         <v>4902</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
@@ -1140,7 +1241,7 @@
         <v>4903</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
@@ -1148,7 +1249,7 @@
         <v>4905</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
@@ -1156,7 +1257,7 @@
         <v>5011</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
@@ -1164,7 +1265,7 @@
         <v>6061</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
@@ -1172,7 +1273,7 @@
         <v>9001</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
@@ -1180,7 +1281,7 @@
         <v>9003</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
@@ -1188,7 +1289,231 @@
         <v>65535</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="2">
+        <v>4101</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="2">
+        <v>4341</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="2">
+        <v>4172</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="2">
+        <v>4173</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="2">
+        <v>4174</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="2">
+        <v>9002</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="2">
+        <v>4221</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="2">
+        <v>4231</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="2">
+        <v>4241</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="2">
+        <v>4251</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="2">
+        <v>4261</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="2">
+        <v>4262</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="2">
+        <v>4263</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="2">
+        <v>4271</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="2">
+        <v>4264</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="2">
+        <v>4281</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="2">
+        <v>4291</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="2">
+        <v>6051</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="2">
+        <v>4906</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="2">
+        <v>5141</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="2">
+        <v>5121</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="2">
+        <v>6411</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="2">
+        <v>6101</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="2">
+        <v>6161</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="2">
+        <v>6151</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="2">
+        <v>6111</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="2">
+        <v>4321</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="2">
+        <v>4331</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
